--- a/Equipe203.xlsx
+++ b/Equipe203.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1154" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43596AAA-797B-464A-AD4A-8B46924BD41F}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9015ABE-82A6-43F8-B5D9-D36E276DB3FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
     <sheet name="Assurance Qualité" sheetId="6" r:id="rId2"/>
     <sheet name="Fonctionnalités" sheetId="8" r:id="rId3"/>
+    <sheet name="Documents" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="193">
   <si>
     <t>Fonct.</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t>Note pondérée</t>
+  </si>
+  <si>
+    <t>Documents</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -110,6 +114,10 @@
 games.controller : la route deleteAllgames ne devraient pas contenir le mot delete vu que la methode http decrit deja la methode fait donc idealement remplacer la par delete.(.../Allgames) </t>
   </si>
   <si>
+    <t>Game.Creation contient trop de logique qui devraient être séparé. La responsabilité de traiter les images et le canvas devraient pas etre fait dans le component
+Creation.Result.Component aussi</t>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -119,6 +127,10 @@
   <si>
     <t>Grouper les services du client dans des folders car vous allez en ajouter plus dans les autres sprint et pour aussi rester uniforme avec l'arborescence de tout le projet.
 Server: services/ file-system , faut rester uniforme , file system est mis dans un folder mais pas les autres .</t>
+  </si>
+  <si>
+    <t>games-controller.spec?
+Ok pour le reste</t>
   </si>
   <si>
     <t>Sous-total</t>
@@ -170,6 +182,9 @@
     <t>Bon travail</t>
   </si>
   <si>
+    <t>Bon travail!</t>
+  </si>
+  <si>
     <t>2.5 Valeur par défaut</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
   <si>
     <t>Parfois vous initialisez à la définition (classic-page.component), parfois dans le constructeur game-storage.service
 Vous devriez uniformiser entre votre serveur et votre client</t>
+  </si>
+  <si>
+    <t>Parfois à la définition parfois dans le construceur</t>
   </si>
   <si>
     <t>3. Fonctions et méthodes</t>
@@ -196,6 +214,9 @@
 getDifferencesPositionsList est beaucoup trop complexe</t>
   </si>
   <si>
+    <t>Bravo!</t>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -219,6 +240,9 @@
   </si>
   <si>
     <t>Vous avez des await inutile dans classic-page.component.spect.ts</t>
+  </si>
+  <si>
+    <t>Vous avez des return await initule</t>
   </si>
   <si>
     <t>4.3 Message d'erreur</t>
@@ -241,6 +265,9 @@
 Server: plusieurs constantes sont defini dans des fonctions et ne sont pas groupé en commun avec les autres const  (pixelStart, imageHeight...)  . Faut aussi respecter le bon format SCREMING_CASE pour les const </t>
   </si>
   <si>
+    <t>Vous mettez les constantes dans env.ts mais faudrait les sepraer par groupes afin que ca soit facile de comprendre chacune appartient a quelle partie. En plus, env.ts est un nom de fichier confusing , idealement ca dervait etre constant.ts</t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -288,6 +315,9 @@
     <t xml:space="preserve">la consition !== null peut etre simplifié </t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -319,6 +349,9 @@
     <t xml:space="preserve">Ex: nbrDifferences </t>
   </si>
   <si>
+    <t>Plius de emus peuevent être créer. Ex:  nbrDifferences</t>
+  </si>
+  <si>
     <t>7.4 Classe et interface</t>
   </si>
   <si>
@@ -348,6 +381,10 @@
   </si>
   <si>
     <t>-0.25 pour chaque fonction: getDifferencesPositionsList, sendImageToServer</t>
+  </si>
+  <si>
+    <t>Il faut que vous améliorer le code de ClassicPageComponent. Ce component comporte trop de logique. Également pour GameCreationPageComponent. 
+Fonctions à revoir: registerUser, addServerSocketMessagesListeners</t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -367,6 +404,9 @@
     <t>Le logiciel a une performance acceptable.</t>
   </si>
   <si>
+    <t>Votre création de jeu est pratiquement inutilisable</t>
+  </si>
+  <si>
     <t>8. Gestion de versions</t>
   </si>
   <si>
@@ -380,6 +420,9 @@
   </si>
   <si>
     <t>Le commit a un message pertinent et descriptif.</t>
+  </si>
+  <si>
+    <t>Pas de commits pour le sprint 2.</t>
   </si>
   <si>
     <t>8.3 Branches mortes</t>
@@ -399,6 +442,9 @@
     <t xml:space="preserve">-0.25 Plusieurs MR de feature ont été fermés. -0.25 Plusierus MR sont merged sans passé le pipeline </t>
   </si>
   <si>
+    <t>2 MR pour tout le sprint 2.</t>
+  </si>
+  <si>
     <t>8.5 Fichiers</t>
   </si>
   <si>
@@ -442,9 +488,6 @@
   </si>
   <si>
     <t>1.5 Système de détection de différences</t>
-  </si>
-  <si>
-    <t>Les images ne sont pas présentes sur le serveur</t>
   </si>
   <si>
     <t>1.6 Vue de jeu en solo</t>
@@ -472,6 +515,10 @@
     <t>2.1 Vue de création de jeu - modification de l'avant-plan</t>
   </si>
   <si>
+    <t>Bon travail
+Votre undo redo ne contient aucun test, vous devriez le tester convenablement dans action container</t>
+  </si>
+  <si>
     <t>2.2 Créer et Joindre une partie un contre un</t>
   </si>
   <si>
@@ -484,6 +531,9 @@
     <t>2.5 Vue de Configuration - suppression de jeu</t>
   </si>
   <si>
+    <t>Supprimer un jeu ne termine pas le salle d'attente</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.6 Messages de partie (local) </t>
   </si>
   <si>
@@ -521,13 +571,133 @@
   </si>
   <si>
     <t>Erreur de build / déploiement erroné</t>
+  </si>
+  <si>
+    <t>Document d'Architecture</t>
+  </si>
+  <si>
+    <t>Protocole de communication</t>
+  </si>
+  <si>
+    <t>Historique des révisions</t>
+  </si>
+  <si>
+    <t>Corrigée par Ahmed</t>
+  </si>
+  <si>
+    <t>1 Introduction /1</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>1 Introduction (commentaires)</t>
+  </si>
+  <si>
+    <t>Bonne introduction</t>
+  </si>
+  <si>
+    <t>2 Vue des cas d'utilisation /5</t>
+  </si>
+  <si>
+    <t>2 Communication client-serveur /7</t>
+  </si>
+  <si>
+    <t>Les noms de vos CUs sont trop verbeux. Soyez plus concis. Ex : CU-1.2 - Valider la tentative
+Commentaire général : si votre serveur est toujours lié à vos CUs, simplement l'intégrer dans votre système et alléger de beaucoup vos diagrammes.
+CU1.0 : Manque un 2e utilisateur pour les cas où vous jouez en mode Coopératif. Certains CUs sont présentés du point de vue de l'Utilisateur, d'autre du serveur : gardez 1 seule manière d'écrire vos titres.
+CU2.0 : les relations "include" devraient être des "extend" ou des généralisations.
+CU3.0 : Même commentaire que page 7. Le CU-3.5 est un détail d'implémentation à retirer.
+CU4.0 : CU-4.1 est un détail d'implémentation à retirer. Attention, ceci s'approche beaucoup d'un diagramme de séquence.
+CU5.0: CU-5.2 est un détail d'implémentation/présentation à retirer.
+CU6.0 : le diagramme devrait être présenté du point de vue de l'utilisateur et non le servuer. Changer "afficher" par "visualiser"/"voir"
+CU7.0 : Même commentaire que CU6.0.Ce diagramme n'apporte pas grande chose au document et ça serait plus pertinant de le retirer.
+CU8.0 : Même commentaire que CU6.0. Mauvaise formulation des noms de vous CUs. Les relations "include" devraient être des "extends" pour CU8.2 à 8.4. CU8.1 à retirer : trop similaire à CU8.0
+Globalement très bien, mais un gros manque de synthèse. Certains diagrammes sont à retirer ou fusionner ensemble. Notions d'include/extends à revoir.</t>
+  </si>
+  <si>
+    <t>Manque de justification pour le choix du protocole
+On s'attend que vous mentionner le protocole et non la librairie utilisé. C'est important de distinguer entre WebSockets et Socket.io.
+Dans la colonne moyen de communication , vous donnez des details non necessaires pour la section. L'important c'etait d'indiquer le choix et bien le justifier et non de mentionner les etapes du cas d'utilisation.</t>
+  </si>
+  <si>
+    <t>3 Vue des processus /6</t>
+  </si>
+  <si>
+    <t>3 Description des paquets /12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte en début de section n'est pas nécessaire : le but est de représenter l'information à travers vos diagrammes.
+Vos messages sont trop proches du code : ce n'est pas le but d'un diagramme de séquences.
+Page 11 : manque la notion de multijoueur pour le mode temps limité. Ça ne devrait pas être le rôle du Client de "connecter deux joueurs en attente". Manque la notion d'abandon et gestion de l'abandon avec 2 joueurs.
+Page 11 : La mise à jour des meilleurs temps n'est pas possible dans le mode temps limité. La séquence n'est pas valide.
+Page 12 constantes: La mise à jour et la réinitialisation devraient être des [opt]. La séquence présentée force l'utilisateur de toujours réinitialiser les jeux à chaque fois qu'il accède à la page de configuration. Selon le diagramme, l'historique est visible seulement après une réinitialisation.
+Page 12 mode reprise : le début de la séquence devrait être la fin de la partie en mode classique et pas avant. La reprise est un [alt] : le joueur peut décider de pas la faire. Toutes les actions durant la reprise devraient être des [opt]. Manque un message de retour du client vers l'utilisateur.
+Section à revoir. Notions de [alt] et [opt] à revoir.
+</t>
+  </si>
+  <si>
+    <t>bonne presentation des contenu
+POST devrait  retourner un code 201 au lieu d'un 200 pour le send-image 
+Pour la partie WS, c'est important que vous indiquez si c'est un event sent du serveur ou du client donc dans le contenu faudrait le preciser pour documenter la communication bidirectionnelle.</t>
+  </si>
+  <si>
+    <t>4 Vue logique /6</t>
+  </si>
+  <si>
+    <t>Beaucoup de classes "flottantes" sans relations dans les diagrammes : à corriger.
+Page 13 : les diagrammes semblent incomplètes : on ne comprend pas les intéractions entre les components.
+Page 14 : les 2 diagrammes devraient être 1 seul. La séparation en 2 porte à confusion.
+Page 15 : aucun avantage d'avoir tout le contenu du ClassicPageComponent. Votre ChatService est lié à SocketService et MatchmakingService, mais cette information doit être inférée en lisant le constructeur puisque les relations ne sont pas présentes dans le diagramme.
+Présentation du client : manque d'information pour plusieurs classes au niveau de vos services et leurs relations avec le reste. Vos descriptions de paquetages présentes des informations imporatnes (ex: page 15) qui ne sont pas données dans les diagrammes.
+Présentation du serveur : la présentation est plus cohérente que le client, mais encore une fois, vois avez un problème de synthèse et le grand nombre de détails donnés nuit à la lisibilité et à la compréhension de votre architecture.
+Page 18 : pourquoi la représentation est si différente des autres diagrammes ? Ceci aurait du être présenté dans la section du client et présenter ces relations pour le ClassicPageComponent. La description en haut de la page donne des détials d'implémentaition/logique qui ne devraient pas être dans ce document.
+Page 19 : est-ce qu'il vous manque un diagramme pour le mode reprise ? Pourquoi ReplayService n'est pas dans le diagramme de la page 14 ?
+Page 19 : ce diagramme est le même, mais plus détaillé que le 1er diagramme de la page 14. Pourquoi 2 diagrammes différents ?
+Page 20 : les  interfaces "flottantes" sans relations n'aides pas la compréhension. Le contenu de vote fichier "env.ts" n'est pas pertinent
+Section à revoir : présentation avec trop d'information non nécessaire et difficile à lire.</t>
+  </si>
+  <si>
+    <t>5 Vue de déploiement /2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n'y a pas de communication WS avec le serveur statique : HTTP seulement. GitLab n'est pas un serveur statique.
+Il faut représenter 1 seul Client/Navigateur dans le déploiement
+Pourquoi est-ce que NodeJs et Expres sont obligatoires sur la machine de l'utilisateur pour accéder à votre site web ?
+Manque le système d'exploitation de la machine du Client.
+Manque le logiciel (votre projet) du serveur dynamique. Manque l'environnement d'exécution NodeJs utilisé par votre logiciel. Manque la spécification que Linux est un système d'exploitation.
+Manque le protocole de communication entre le serveur dynamique et la BD (mongodb wire protocol ou TCP).
+Manque la spécification que votre BD est de type MongoDB (Accédé par DatabaseService est une information de la section 4). MongoDB Atlas est un serveur et non un "device"
+</t>
+  </si>
+  <si>
+    <t>Forme /1</t>
+  </si>
+  <si>
+    <t>Section 2 : la numération de CU ne devrait pas recommencer entre chaque diagramme. Le fait d'avoir plusieurs CU-1.0 porte à confusion
+Section 2 : manque de synthèse.
+Mise en page : titre et contenu de la section 5 sur 2 pages différentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manque d'une structure qui liste  les endpoints et des events sockets (bullet points, tirets, numéros..) et qui donne un titre descriptif de l'endpoint
+tableau manque de titre section2 et manque une presentaion (ex: le tableau ci-dessous présente ...etc)
+</t>
+  </si>
+  <si>
+    <t>FOND</t>
+  </si>
+  <si>
+    <t>FORME</t>
+  </si>
+  <si>
+    <t>NOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -651,8 +821,41 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,8 +999,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1464,6 +1691,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1474,7 +1770,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2108,6 +2404,159 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="28" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2132,105 +2581,9 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2264,8 +2617,8 @@
     <xf numFmtId="2" fontId="17" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2656,10 +3009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FA667-0374-4556-B71F-558CE1E91347}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2672,7 +3025,7 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:8" ht="30.75">
       <c r="A3" s="40"/>
       <c r="B3" s="126" t="s">
         <v>0</v>
@@ -2692,22 +3045,25 @@
       <c r="G3" s="129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="108">
         <f>(Fonctionnalités!E15)</f>
-        <v>0.96400000000000008</v>
+        <v>0.99400000000000011</v>
       </c>
       <c r="C4" s="108">
         <f>'Assurance Qualité'!C59</f>
-        <v>0.60099999999999998</v>
+        <v>0.629</v>
       </c>
       <c r="D4" s="108">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.81879999999999997</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="E4" s="109"/>
       <c r="F4" s="110">
@@ -2715,24 +3071,25 @@
       </c>
       <c r="G4" s="111">
         <f>D4*F4</f>
-        <v>16.375999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>16.96</v>
+      </c>
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0</v>
+        <v>0.83900000000000008</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.79060000000000008</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2740,12 +3097,16 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>15.812000000000001</v>
+      </c>
+      <c r="H5" s="116">
+        <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
+        <v>3.6187499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
@@ -2767,10 +3128,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="121">
+        <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
@@ -2785,6 +3150,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H7" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2796,8 +3162,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2816,36 +3182,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="219" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="A2" s="270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="220" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
+      <c r="A4" s="271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="271"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2865,62 +3231,62 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="237" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="224" t="s">
+      <c r="A6" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="239" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241" t="s">
+      <c r="B6" s="275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="243"/>
-      <c r="I6" s="221" t="s">
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="222"/>
-      <c r="K6" s="223"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="272" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="273"/>
+      <c r="K6" s="274"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="236"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="238"/>
-      <c r="B7" s="225"/>
+      <c r="A7" s="264"/>
+      <c r="B7" s="276"/>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2930,26 +3296,26 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="234" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="227" t="s">
+      <c r="A8" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="228"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="239"/>
       <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="228"/>
+      <c r="G8" s="239"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="228"/>
+      <c r="I8" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="239"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2960,10 +3326,10 @@
     </row>
     <row r="9" spans="1:17" ht="409.6">
       <c r="A9" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="100">
         <v>0.6</v>
@@ -2972,13 +3338,17 @@
         <v>6</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="102"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="102">
+        <v>0.7</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="103" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="104"/>
       <c r="J9" s="105">
         <v>6</v>
@@ -2993,10 +3363,10 @@
     </row>
     <row r="10" spans="1:17" ht="229.5">
       <c r="A10" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="100">
         <v>0.5</v>
@@ -3005,13 +3375,17 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="102"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="102">
+        <v>0.8</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
-      <c r="H10" s="103"/>
+      <c r="H10" s="103" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="104"/>
       <c r="J10" s="105">
         <v>2</v>
@@ -3025,10 +3399,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="230"/>
+      <c r="A11" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="241"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>4.5999999999999996</v>
@@ -3040,7 +3414,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3064,26 +3438,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="234" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="228"/>
+      <c r="A12" s="245" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="245"/>
+      <c r="C12" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="239"/>
       <c r="E12" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="228"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="228"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="239"/>
+      <c r="H12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="239"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3094,10 +3470,10 @@
     </row>
     <row r="13" spans="1:17" ht="137.25">
       <c r="A13" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="79">
         <v>0</v>
@@ -3106,14 +3482,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="89"/>
+        <v>33</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0</v>
+      </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="91"/>
+      <c r="H13" s="91" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="92"/>
       <c r="J13" s="93">
         <f>G13</f>
@@ -3125,10 +3505,10 @@
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="83">
         <v>1</v>
@@ -3137,14 +3517,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="88">
+        <v>0</v>
+      </c>
       <c r="I14" s="76"/>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
@@ -3156,10 +3540,10 @@
     </row>
     <row r="15" spans="1:17" ht="45.75">
       <c r="A15" s="23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3168,14 +3552,18 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="86"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0</v>
+      </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
@@ -3187,10 +3575,10 @@
     </row>
     <row r="16" spans="1:17" ht="30.75">
       <c r="A16" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3199,14 +3587,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F16" s="86">
+        <v>1</v>
+      </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>43</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="93">
         <f t="shared" si="1"/>
@@ -3218,10 +3610,10 @@
     </row>
     <row r="17" spans="1:17" ht="167.25">
       <c r="A17" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17" s="83">
         <v>0.5</v>
@@ -3230,14 +3622,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>46</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="90">
-        <f t="shared" si="0"/>
+        <f>D17</f>
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>47</v>
+      </c>
       <c r="I17" s="76"/>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
@@ -3248,10 +3644,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="230"/>
+      <c r="A18" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="241"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8</v>
@@ -3263,7 +3659,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3287,36 +3683,36 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="226" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="228"/>
+      <c r="A19" s="277" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="277"/>
+      <c r="C19" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="239"/>
       <c r="E19" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="228"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="239"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="228"/>
+      <c r="I19" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="239"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="152.25">
       <c r="A20" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="83">
         <v>0.1</v>
@@ -3325,13 +3721,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="86"/>
+        <v>51</v>
+      </c>
+      <c r="F20" s="86">
+        <v>1</v>
+      </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="88" t="s">
+        <v>52</v>
+      </c>
       <c r="I20" s="76"/>
       <c r="J20" s="77">
         <v>3</v>
@@ -3342,10 +3742,10 @@
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3354,13 +3754,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="88" t="s">
+        <v>43</v>
+      </c>
       <c r="I21" s="76"/>
       <c r="J21" s="77">
         <v>3</v>
@@ -3370,10 +3774,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="231" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="232"/>
+      <c r="A22" s="278" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="260"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>3.3</v>
@@ -3385,7 +3789,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3406,35 +3810,35 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="214" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B23" s="214"/>
-      <c r="C23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="228"/>
+      <c r="C23" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="239"/>
       <c r="E23" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="228"/>
+        <v>30</v>
+      </c>
+      <c r="F23" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="239"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="228"/>
+      <c r="I23" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="239"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3443,13 +3847,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="82"/>
+        <v>36</v>
+      </c>
+      <c r="F24" s="82">
+        <v>1</v>
+      </c>
       <c r="G24" s="27">
         <v>1</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="I24" s="73"/>
       <c r="J24" s="74">
         <v>1</v>
@@ -3460,10 +3868,10 @@
     </row>
     <row r="25" spans="1:17" ht="60.75">
       <c r="A25" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C25" s="83">
         <v>0.9</v>
@@ -3472,13 +3880,17 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="86"/>
+        <v>60</v>
+      </c>
+      <c r="F25" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G25" s="87">
         <v>2</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="88" t="s">
+        <v>61</v>
+      </c>
       <c r="I25" s="76"/>
       <c r="J25" s="77">
         <v>2</v>
@@ -3489,10 +3901,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3501,13 +3913,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77">
         <v>1</v>
@@ -3517,10 +3933,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="233" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="232"/>
+      <c r="A27" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="260"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>3.8</v>
@@ -3532,7 +3948,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3552,52 +3968,56 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="226" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="226"/>
-      <c r="C28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="228"/>
+      <c r="A28" s="277" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="277"/>
+      <c r="C28" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="239"/>
       <c r="E28" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="228"/>
+      <c r="G28" s="239"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="228"/>
+      <c r="I28" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="239"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="366">
       <c r="A29" s="31" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C29" s="79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="80">
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="89"/>
+        <v>67</v>
+      </c>
+      <c r="F29" s="89">
+        <v>0.5</v>
+      </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="95"/>
+      <c r="H29" s="95" t="s">
+        <v>68</v>
+      </c>
       <c r="I29" s="92"/>
       <c r="J29" s="93">
         <f>D29</f>
@@ -3609,10 +4029,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -3621,7 +4041,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="F30" s="86">
+        <v>1</v>
+      </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
@@ -3638,10 +4060,10 @@
     </row>
     <row r="31" spans="1:17" ht="106.5">
       <c r="A31" s="24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C31" s="83">
         <v>0.4</v>
@@ -3650,9 +4072,11 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="86"/>
+        <v>73</v>
+      </c>
+      <c r="F31" s="86">
+        <v>1</v>
+      </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3668,13 +4092,13 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="230"/>
+      <c r="A32" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="241"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D32" s="48">
         <f>SUM(D29:D31)</f>
@@ -3683,7 +4107,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3703,24 +4127,24 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="234" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="228"/>
+      <c r="A33" s="245" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="245"/>
+      <c r="C33" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="239"/>
       <c r="E33" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="228"/>
+      <c r="G33" s="239"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" s="66"/>
       <c r="K33" s="46"/>
@@ -3729,10 +4153,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -3741,7 +4165,9 @@
         <v>2</v>
       </c>
       <c r="E34" s="81"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="89">
+        <v>1</v>
+      </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
@@ -3756,10 +4182,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3768,7 +4194,9 @@
         <v>2</v>
       </c>
       <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="F35" s="86">
+        <v>1</v>
+      </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
@@ -3783,10 +4211,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -3795,7 +4223,9 @@
         <v>3</v>
       </c>
       <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
+      <c r="F36" s="86">
+        <v>1</v>
+      </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
@@ -3810,10 +4240,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C37" s="83">
         <v>0.8</v>
@@ -3822,9 +4252,11 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="86"/>
+        <v>83</v>
+      </c>
+      <c r="F37" s="86">
+        <v>1</v>
+      </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
@@ -3837,11 +4269,11 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="230"/>
+    <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A38" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="241"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.4</v>
@@ -3853,13 +4285,15 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
         <v>10</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
         <v>0</v>
@@ -3874,35 +4308,35 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="228"/>
+      <c r="C39" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="239"/>
       <c r="E39" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="228"/>
+        <v>86</v>
+      </c>
+      <c r="F39" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="239"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="228"/>
+      <c r="I39" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="239"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -3911,14 +4345,18 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F40" s="86">
+        <v>1</v>
+      </c>
       <c r="G40" s="87">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I40" s="76"/>
       <c r="J40" s="77">
         <f>D40</f>
@@ -3930,10 +4368,10 @@
     </row>
     <row r="41" spans="1:13" ht="45.75">
       <c r="A41" s="23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C41" s="83">
         <v>0</v>
@@ -3942,14 +4380,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="86"/>
+        <v>91</v>
+      </c>
+      <c r="F41" s="86">
+        <v>1</v>
+      </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="88" t="s">
+        <v>84</v>
+      </c>
       <c r="I41" s="76"/>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
@@ -3959,12 +4401,12 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="45.75">
       <c r="A42" s="23" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C42" s="83">
         <v>0</v>
@@ -3973,14 +4415,18 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="86"/>
+        <v>94</v>
+      </c>
+      <c r="F42" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="88" t="s">
+        <v>95</v>
+      </c>
       <c r="I42" s="76"/>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
@@ -3991,10 +4437,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C43" s="83">
         <v>1</v>
@@ -4003,14 +4449,18 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F43" s="86">
+        <v>1</v>
+      </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I43" s="76"/>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
@@ -4022,10 +4472,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="23" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4034,14 +4484,18 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F44" s="86">
+        <v>1</v>
+      </c>
       <c r="G44" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I44" s="76"/>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
@@ -4053,10 +4507,10 @@
     </row>
     <row r="45" spans="1:13" ht="45.75">
       <c r="A45" s="23" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C45" s="83">
         <v>0</v>
@@ -4065,14 +4519,18 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="86"/>
+        <v>102</v>
+      </c>
+      <c r="F45" s="86">
+        <v>1</v>
+      </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="88" t="s">
+        <v>84</v>
+      </c>
       <c r="I45" s="76"/>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
@@ -4082,12 +4540,12 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="76.5">
+    <row r="46" spans="1:13" ht="198">
       <c r="A46" s="23" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C46" s="83">
         <v>0.5</v>
@@ -4096,14 +4554,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="218" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>105</v>
+      </c>
+      <c r="F46" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="88" t="s">
+        <v>106</v>
+      </c>
       <c r="I46" s="76"/>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
@@ -4115,26 +4577,30 @@
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C47" s="83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D47" s="84">
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="86"/>
+        <v>109</v>
+      </c>
+      <c r="F47" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="88" t="s">
+        <v>109</v>
+      </c>
       <c r="I47" s="76"/>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
@@ -4144,12 +4610,12 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="45.75">
       <c r="A48" s="13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4158,14 +4624,18 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="86"/>
+        <v>36</v>
+      </c>
+      <c r="F48" s="86">
+        <v>0</v>
+      </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H48" s="88"/>
+      <c r="H48" s="88" t="s">
+        <v>112</v>
+      </c>
       <c r="I48" s="76"/>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
@@ -4176,13 +4646,13 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="230"/>
+      <c r="A49" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="241"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D49" s="58">
         <f>SUM(D40:D48)</f>
@@ -4191,7 +4661,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4215,36 +4685,38 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="234" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="228"/>
+      <c r="A50" s="245" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="245"/>
+      <c r="C50" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="239"/>
       <c r="E50" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="228"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="227" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="228"/>
+        <v>86</v>
+      </c>
+      <c r="F50" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="239"/>
+      <c r="H50" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="239"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4253,13 +4725,17 @@
         <v>2</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="82"/>
+        <v>42</v>
+      </c>
+      <c r="F51" s="82">
+        <v>1</v>
+      </c>
       <c r="G51" s="27">
         <v>2</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="I51" s="73"/>
       <c r="J51" s="74">
         <v>2</v>
@@ -4268,12 +4744,12 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" ht="30.75">
       <c r="A52" s="23" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4282,13 +4758,17 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F52" s="86">
+        <v>0</v>
+      </c>
       <c r="G52" s="87">
         <v>2</v>
       </c>
-      <c r="H52" s="88"/>
+      <c r="H52" s="88" t="s">
+        <v>118</v>
+      </c>
       <c r="I52" s="76"/>
       <c r="J52" s="77">
         <v>2</v>
@@ -4299,10 +4779,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4311,13 +4791,17 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
-      <c r="H53" s="88"/>
+      <c r="H53" s="88" t="s">
+        <v>36</v>
+      </c>
       <c r="I53" s="76"/>
       <c r="J53" s="77">
         <v>1</v>
@@ -4328,10 +4812,10 @@
     </row>
     <row r="54" spans="1:17" ht="76.5">
       <c r="A54" s="23" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C54" s="83">
         <v>0.5</v>
@@ -4340,13 +4824,17 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="86"/>
+        <v>123</v>
+      </c>
+      <c r="F54" s="86">
+        <v>0</v>
+      </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>124</v>
+      </c>
       <c r="I54" s="76"/>
       <c r="J54" s="77">
         <v>4</v>
@@ -4357,10 +4845,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4369,13 +4857,17 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="86"/>
+        <v>42</v>
+      </c>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
-      <c r="H55" s="88"/>
+      <c r="H55" s="88" t="s">
+        <v>84</v>
+      </c>
       <c r="I55" s="76"/>
       <c r="J55" s="77">
         <v>2</v>
@@ -4385,10 +4877,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="229" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="230"/>
+      <c r="A56" s="240" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="241"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>9</v>
@@ -4400,7 +4892,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4420,30 +4912,30 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="257" t="s">
+      <c r="A57" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="258"/>
-      <c r="C57" s="258"/>
-      <c r="D57" s="258"/>
-      <c r="E57" s="258"/>
-      <c r="F57" s="258"/>
-      <c r="G57" s="258"/>
-      <c r="H57" s="258"/>
-      <c r="I57" s="258"/>
-      <c r="J57" s="258"/>
-      <c r="K57" s="259"/>
+      <c r="B57" s="243"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="243"/>
+      <c r="H57" s="243"/>
+      <c r="I57" s="243"/>
+      <c r="J57" s="243"/>
+      <c r="K57" s="244"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="244" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="245"/>
+      <c r="A58" s="246" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="247"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
-        <v>60.1</v>
+        <v>62.9</v>
       </c>
       <c r="D58" s="25">
         <f>D11+D18+D22+D27+D32+D38+D49+D56</f>
@@ -4452,7 +4944,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>71.8</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4472,52 +4964,49 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="246" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="247"/>
-      <c r="C59" s="248">
+      <c r="A59" s="248" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="249"/>
+      <c r="C59" s="250">
         <f>C58/D58</f>
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="D59" s="249"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="251">
+        <v>0.629</v>
+      </c>
+      <c r="D59" s="251"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="253">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="252"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="254">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G59" s="254"/>
+      <c r="H59" s="255"/>
+      <c r="I59" s="256">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256"/>
+      <c r="J59" s="257"/>
+      <c r="K59" s="258"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:P6"/>
@@ -4534,25 +5023,28 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -4571,8 +5063,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4587,15 +5079,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="260" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
+      <c r="A2" s="279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4608,7 +5100,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4619,42 +5111,42 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="264" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="A6" s="283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="285"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4670,15 +5162,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4694,15 +5186,15 @@
         <v>12</v>
       </c>
       <c r="F9" s="137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -4718,15 +5210,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -4742,18 +5234,18 @@
         <v>16</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B12" s="134">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C12" s="134">
         <v>1</v>
@@ -4763,18 +5255,18 @@
       </c>
       <c r="E12" s="134">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45.75">
       <c r="A13" s="133" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B13" s="134">
         <v>0.95</v>
@@ -4790,15 +5282,15 @@
         <v>11.399999999999999</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="271" t="s">
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="219" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="136" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B14" s="137">
         <v>1</v>
@@ -4814,51 +5306,51 @@
         <v>26</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G14" s="138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
+        <v>143</v>
+      </c>
+      <c r="B15" s="286"/>
+      <c r="C15" s="286"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
       </c>
       <c r="E15" s="141">
         <f>(SUM(E8:E14)+E17+E18)/D15</f>
-        <v>0.96400000000000008</v>
+        <v>0.99400000000000011</v>
       </c>
       <c r="F15" s="141"/>
       <c r="G15" s="142"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="144"/>
       <c r="D16" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -4876,7 +5368,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="151" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B18" s="152">
         <v>0</v>
@@ -4893,165 +5385,189 @@
       <c r="G18" s="154"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="268" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="270"/>
+      <c r="A19" s="287" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="288"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="288"/>
+      <c r="G19" s="289"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="155" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B20" s="156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F20" s="156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="157" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45.75">
       <c r="A21" s="158" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B21" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="159">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D21" s="159">
         <v>26</v>
       </c>
       <c r="E21" s="159">
         <f>B21*C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
+        <v>19.5</v>
+      </c>
+      <c r="F21" s="159" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="237" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="161" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B22" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="162">
         <v>14</v>
       </c>
       <c r="E22" s="162">
-        <f t="shared" ref="E22:E28" si="1">B22*C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
+        <f t="shared" ref="E22:E27" si="1">B22*C22*D22</f>
+        <v>14</v>
+      </c>
+      <c r="F22" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="163" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="158" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B23" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="159">
         <v>26</v>
       </c>
       <c r="E23" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
+        <v>26</v>
+      </c>
+      <c r="F23" s="159" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="160" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="161" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B24" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="162">
         <v>12</v>
       </c>
       <c r="E24" s="162">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="163"/>
+        <f>B24*C24*D24</f>
+        <v>12</v>
+      </c>
+      <c r="F24" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="163" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="158" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B25" s="159">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="159">
         <v>8</v>
       </c>
       <c r="E25" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
+        <v>6.4</v>
+      </c>
+      <c r="F25" s="159" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="160" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="161" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B26" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="162">
         <v>6</v>
       </c>
       <c r="E26" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="163"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="163" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="215" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B27" s="215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="215">
         <v>0</v>
@@ -5063,12 +5579,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="216"/>
+      <c r="F27" s="215" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="216" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="164" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B28" s="165"/>
       <c r="C28" s="165"/>
@@ -5077,34 +5597,34 @@
         <v>100</v>
       </c>
       <c r="E28" s="166">
-        <f>(SUM(E21:E26) + E30+E31+E32)/D28</f>
-        <v>0</v>
+        <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
+        <v>0.83900000000000008</v>
       </c>
       <c r="F28" s="166"/>
       <c r="G28" s="167"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="168" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="169"/>
       <c r="D29" s="169" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="170" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F29" s="170"/>
       <c r="G29" s="171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="172" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B30" s="173">
         <v>0</v>
@@ -5122,7 +5642,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="176" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B31" s="177">
         <v>0</v>
@@ -5140,7 +5660,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="180" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B32" s="181">
         <v>0</v>
@@ -5157,42 +5677,42 @@
       <c r="G32" s="183"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="261" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="262"/>
-      <c r="C33" s="262"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="263"/>
+      <c r="A33" s="280" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="281"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
+      <c r="E33" s="281"/>
+      <c r="F33" s="281"/>
+      <c r="G33" s="282"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="184" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B34" s="185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="185" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D34" s="185" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F34" s="185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="187" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B35" s="188">
         <v>0</v>
@@ -5212,7 +5732,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="190" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B36" s="191">
         <v>0</v>
@@ -5232,7 +5752,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="187" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B37" s="188">
         <v>0</v>
@@ -5252,7 +5772,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="190" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B38" s="191">
         <v>0</v>
@@ -5272,7 +5792,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="187" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B39" s="188">
         <v>0</v>
@@ -5292,7 +5812,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="190" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B40" s="191">
         <v>0</v>
@@ -5312,7 +5832,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="187" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B41" s="188">
         <v>0</v>
@@ -5332,7 +5852,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="217" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B42" s="217">
         <v>0</v>
@@ -5352,7 +5872,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="193" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B43" s="194"/>
       <c r="C43" s="194"/>
@@ -5369,26 +5889,26 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="197" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B44" s="198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" s="198"/>
       <c r="D44" s="198" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="199" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F44" s="199"/>
       <c r="G44" s="200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="201" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B45" s="202">
         <v>0</v>
@@ -5406,7 +5926,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="205" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B46" s="206">
         <v>0</v>
@@ -5424,7 +5944,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="209" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B47" s="210">
         <v>0</v>
@@ -5466,7 +5986,293 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C419CCA7-9A71-4A4D-A58A-58139BB14908}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="290" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="290"/>
+      <c r="E1" s="290" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="290"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B2" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="221" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="222"/>
+      <c r="E3" s="221" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="222" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="223" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="224">
+        <v>1</v>
+      </c>
+      <c r="C4" s="224"/>
+      <c r="E4" s="223" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="224">
+        <v>1</v>
+      </c>
+      <c r="G4" s="224"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="221"/>
+      <c r="B5" s="225" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="221" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="225" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="223" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="224">
+        <v>4</v>
+      </c>
+      <c r="C6" s="224"/>
+      <c r="E6" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="224">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="224"/>
+    </row>
+    <row r="7" spans="1:7" ht="324">
+      <c r="A7" s="221"/>
+      <c r="B7" s="222" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="221"/>
+      <c r="F7" s="222" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="223" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="224">
+        <v>4</v>
+      </c>
+      <c r="C8" s="224"/>
+      <c r="E8" s="223" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="224">
+        <v>9.5</v>
+      </c>
+      <c r="G8" s="224"/>
+    </row>
+    <row r="9" spans="1:7" ht="307.5">
+      <c r="A9" s="221"/>
+      <c r="B9" s="226" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="227"/>
+      <c r="F9" s="226" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="223" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="224">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="224"/>
+    </row>
+    <row r="11" spans="1:7" ht="366">
+      <c r="A11" s="221"/>
+      <c r="B11" s="234" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="223" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="224">
+        <v>1</v>
+      </c>
+      <c r="C12" s="224"/>
+    </row>
+    <row r="13" spans="1:7" ht="198">
+      <c r="A13" s="227"/>
+      <c r="B13" s="235" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="228" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="224">
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="224"/>
+      <c r="E14" s="228" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="229">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="224"/>
+    </row>
+    <row r="15" spans="1:7" ht="113.25">
+      <c r="A15" s="221"/>
+      <c r="B15" s="236" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="221"/>
+      <c r="F15" s="226" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="230" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="231">
+        <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
+        <v>13.5</v>
+      </c>
+      <c r="C16" s="231">
+        <f>SUM(C4,C6,C8,C10,C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="230" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="231">
+        <f>SUM(F4,F6,F8)</f>
+        <v>15</v>
+      </c>
+      <c r="G16" s="231">
+        <f>SUM(G4,G6,G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="230" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="231">
+        <f t="shared" ref="B17" si="1">B14</f>
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="231">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="230" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="231">
+        <f>F14</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="231">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="232" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="233">
+        <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="C18" s="233">
+        <f>C16/20*0.9+C17*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="232" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="233">
+        <f>F16/20*0.9+F17*0.1</f>
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="233">
+        <f>G16/20*0.9+G17*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5598,23 +6404,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5622,5 +6413,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
--- a/Equipe203.xlsx
+++ b/Equipe203.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9015ABE-82A6-43F8-B5D9-D36E276DB3FD}"/>
+  <xr:revisionPtr revIDLastSave="1299" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDE9769-5AF6-4C6A-89E7-87FFCE96A2D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -2461,6 +2461,30 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2473,6 +2497,84 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2482,108 +2584,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2622,13 +2622,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3011,7 +3011,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E28)</f>
-        <v>0.83900000000000008</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.79060000000000008</v>
+        <v>0.83860000000000001</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>15.812000000000001</v>
+        <v>16.771999999999998</v>
       </c>
       <c r="H5" s="116">
         <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
@@ -3182,36 +3182,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="271"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="271"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3231,36 +3231,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="265" t="s">
+      <c r="C6" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="267" t="s">
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="268"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="272" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="273"/>
-      <c r="K6" s="274"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="242"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="262"/>
-      <c r="P6" s="262"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="264"/>
-      <c r="B7" s="276"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3296,26 +3296,26 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="245" t="s">
+      <c r="A8" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="245"/>
-      <c r="C8" s="238" t="s">
+      <c r="B8" s="253"/>
+      <c r="C8" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="239"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="238" t="s">
+      <c r="F8" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="239"/>
+      <c r="G8" s="247"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="238" t="s">
+      <c r="I8" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="239"/>
+      <c r="J8" s="247"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3399,10 +3399,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="240" t="s">
+      <c r="A11" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="241"/>
+      <c r="B11" s="249"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>4.5999999999999996</v>
@@ -3438,28 +3438,28 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="245" t="s">
+      <c r="A12" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="245"/>
-      <c r="C12" s="238" t="s">
+      <c r="B12" s="253"/>
+      <c r="C12" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="239"/>
+      <c r="D12" s="247"/>
       <c r="E12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="238" t="s">
+      <c r="F12" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="239"/>
+      <c r="G12" s="247"/>
       <c r="H12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="238" t="s">
+      <c r="I12" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="239"/>
+      <c r="J12" s="247"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3644,10 +3644,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="240" t="s">
+      <c r="A18" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="241"/>
+      <c r="B18" s="249"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8</v>
@@ -3683,26 +3683,26 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="277" t="s">
+      <c r="A19" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="277"/>
-      <c r="C19" s="238" t="s">
+      <c r="B19" s="245"/>
+      <c r="C19" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="247"/>
       <c r="E19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="238" t="s">
+      <c r="F19" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="239"/>
+      <c r="G19" s="247"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="238" t="s">
+      <c r="I19" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="239"/>
+      <c r="J19" s="247"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3774,10 +3774,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="278" t="s">
+      <c r="A22" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="260"/>
+      <c r="B22" s="251"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>3.3</v>
@@ -3813,22 +3813,22 @@
         <v>55</v>
       </c>
       <c r="B23" s="214"/>
-      <c r="C23" s="238" t="s">
+      <c r="C23" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="239"/>
+      <c r="D23" s="247"/>
       <c r="E23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="238" t="s">
+      <c r="F23" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="239"/>
+      <c r="G23" s="247"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="238" t="s">
+      <c r="I23" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="239"/>
+      <c r="J23" s="247"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3933,10 +3933,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="259" t="s">
+      <c r="A27" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="260"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>3.8</v>
@@ -3968,26 +3968,26 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="245" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="277"/>
-      <c r="C28" s="238" t="s">
+      <c r="B28" s="245"/>
+      <c r="C28" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="239"/>
+      <c r="D28" s="247"/>
       <c r="E28" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="238" t="s">
+      <c r="F28" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="239"/>
+      <c r="G28" s="247"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="238" t="s">
+      <c r="I28" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="239"/>
+      <c r="J28" s="247"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
@@ -4092,10 +4092,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="240" t="s">
+      <c r="A32" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="241"/>
+      <c r="B32" s="249"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>2.8</v>
@@ -4127,21 +4127,21 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="245" t="s">
+      <c r="A33" s="253" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="245"/>
-      <c r="C33" s="238" t="s">
+      <c r="B33" s="253"/>
+      <c r="C33" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="239"/>
+      <c r="D33" s="247"/>
       <c r="E33" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="238" t="s">
+      <c r="F33" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="239"/>
+      <c r="G33" s="247"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
         <v>18</v>
@@ -4270,10 +4270,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A38" s="240" t="s">
+      <c r="A38" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="241"/>
+      <c r="B38" s="249"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.4</v>
@@ -4311,22 +4311,22 @@
         <v>85</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="238" t="s">
+      <c r="C39" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="239"/>
+      <c r="D39" s="247"/>
       <c r="E39" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="238" t="s">
+      <c r="F39" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="239"/>
+      <c r="G39" s="247"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="238" t="s">
+      <c r="I39" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="239"/>
+      <c r="J39" s="247"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -4646,10 +4646,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="240" t="s">
+      <c r="A49" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="241"/>
+      <c r="B49" s="249"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>22</v>
@@ -4685,28 +4685,28 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="245" t="s">
+      <c r="A50" s="253" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="245"/>
-      <c r="C50" s="238" t="s">
+      <c r="B50" s="253"/>
+      <c r="C50" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="239"/>
+      <c r="D50" s="247"/>
       <c r="E50" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="238" t="s">
+      <c r="F50" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="239"/>
+      <c r="G50" s="247"/>
       <c r="H50" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="238" t="s">
+      <c r="I50" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="239"/>
+      <c r="J50" s="247"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
@@ -4877,10 +4877,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="240" t="s">
+      <c r="A56" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="241"/>
+      <c r="B56" s="249"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>9</v>
@@ -4912,27 +4912,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="242" t="s">
+      <c r="A57" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="243"/>
-      <c r="C57" s="243"/>
-      <c r="D57" s="243"/>
-      <c r="E57" s="243"/>
-      <c r="F57" s="243"/>
-      <c r="G57" s="243"/>
-      <c r="H57" s="243"/>
-      <c r="I57" s="243"/>
-      <c r="J57" s="243"/>
-      <c r="K57" s="244"/>
+      <c r="B57" s="277"/>
+      <c r="C57" s="277"/>
+      <c r="D57" s="277"/>
+      <c r="E57" s="277"/>
+      <c r="F57" s="277"/>
+      <c r="G57" s="277"/>
+      <c r="H57" s="277"/>
+      <c r="I57" s="277"/>
+      <c r="J57" s="277"/>
+      <c r="K57" s="278"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="246" t="s">
+      <c r="A58" s="263" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="247"/>
+      <c r="B58" s="264"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>62.9</v>
@@ -4964,33 +4964,68 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="248" t="s">
+      <c r="A59" s="265" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="249"/>
-      <c r="C59" s="250">
+      <c r="B59" s="266"/>
+      <c r="C59" s="267">
         <f>C58/D58</f>
         <v>0.629</v>
       </c>
-      <c r="D59" s="251"/>
-      <c r="E59" s="252"/>
-      <c r="F59" s="253">
+      <c r="D59" s="268"/>
+      <c r="E59" s="269"/>
+      <c r="F59" s="270">
         <f>F58/G58</f>
         <v>0.71799999999999997</v>
       </c>
-      <c r="G59" s="254"/>
-      <c r="H59" s="255"/>
-      <c r="I59" s="256">
+      <c r="G59" s="271"/>
+      <c r="H59" s="272"/>
+      <c r="I59" s="273">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="257"/>
-      <c r="K59" s="258"/>
+      <c r="J59" s="274"/>
+      <c r="K59" s="275"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="I6:K6"/>
@@ -5007,41 +5042,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -5063,8 +5063,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5570,14 +5570,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="215">
         <v>8</v>
       </c>
       <c r="E27" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F27" s="215" t="s">
         <v>30</v>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="E28" s="166">
         <f>(SUM(E21:E27) + E30+E31+E32)/D28</f>
-        <v>0.83900000000000008</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F28" s="166"/>
       <c r="G28" s="167"/>
@@ -6258,21 +6258,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -6404,8 +6389,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6413,5 +6413,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
--- a/Equipe203.xlsx
+++ b/Equipe203.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1299" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDE9769-5AF6-4C6A-89E7-87FFCE96A2D5}"/>
+  <xr:revisionPtr revIDLastSave="1302" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A038CFF1-B9C7-45F4-8A74-E3F4FDE6F81F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -3085,11 +3085,11 @@
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F59</f>
-        <v>0.71799999999999997</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.83860000000000001</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>16.771999999999998</v>
+        <v>16.932000000000002</v>
       </c>
       <c r="H5" s="116">
         <f>AVERAGE(Documents!B18,Documents!F18)*5</f>
@@ -3162,8 +3162,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4761,7 +4761,7 @@
         <v>42</v>
       </c>
       <c r="F52" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="87">
         <v>2</v>
@@ -4892,7 +4892,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4944,7 +4944,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>71.8</v>
+        <v>73.8</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -4976,7 +4976,7 @@
       <c r="E59" s="269"/>
       <c r="F59" s="270">
         <f>F58/G58</f>
-        <v>0.71799999999999997</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="G59" s="271"/>
       <c r="H59" s="272"/>
@@ -5063,7 +5063,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/Equipe203.xlsx
+++ b/Equipe203.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1302" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A038CFF1-B9C7-45F4-8A74-E3F4FDE6F81F}"/>
+  <xr:revisionPtr revIDLastSave="1560" documentId="13_ncr:1_{89A5CB98-93EB-451E-A012-FBFD01AD492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37A693F2-1A39-40B1-8C1E-BE6A827E008C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="223">
   <si>
     <t>Fonct.</t>
   </si>
@@ -118,6 +118,12 @@
 Creation.Result.Component aussi</t>
   </si>
   <si>
+    <t>classic-page contient trop de responsabilités , faudrait les mettre dans des service et components séparés qui seront réutilisables par après. 
+timer aussi 
+game-creation-page aussi 
+Bon travail pour le reste</t>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -131,6 +137,11 @@
   <si>
     <t>games-controller.spec?
 Ok pour le reste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+utils n'est pas un bon nom pour le folder des constants 
+Good job pour le reste </t>
   </si>
   <si>
     <t>Sous-total</t>
@@ -162,6 +173,9 @@
     <t>Ok</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>2.3 Accessibilité</t>
   </si>
   <si>
@@ -183,6 +197,9 @@
   </si>
   <si>
     <t>Bon travail!</t>
+  </si>
+  <si>
+    <t>ClassicGamePageComponent a trop de couplage</t>
   </si>
   <si>
     <t>2.5 Valeur par défaut</t>
@@ -217,6 +234,9 @@
     <t>Bravo!</t>
   </si>
   <si>
+    <t>handleClickAndLetterTEvent trop complexe</t>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -231,6 +251,10 @@
   </si>
   <si>
     <t>La console ne génère pas de message d'avertissement (warning) ou d'erreur (error) qui aurait pu être gérés par le programme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot read properties of undefined (reading 'disconnect')
+ </t>
   </si>
   <si>
     <t>4.2 Code asynchrone</t>
@@ -268,6 +292,9 @@
     <t>Vous mettez les constantes dans env.ts mais faudrait les sepraer par groupes afin que ca soit facile de comprendre chacune appartient a quelle partie. En plus, env.ts est un nom de fichier confusing , idealement ca dervait etre constant.ts</t>
   </si>
   <si>
+    <t>Tres bien</t>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -287,6 +314,9 @@
     <t>6. Expressions booléennes</t>
   </si>
   <si>
+    <t xml:space="preserve">Ahmed </t>
+  </si>
+  <si>
     <t>6.1 Expression</t>
   </si>
   <si>
@@ -318,6 +348,9 @@
     <t>OK</t>
   </si>
   <si>
+    <t xml:space="preserve">Bon travail </t>
+  </si>
+  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -374,6 +407,10 @@
     <t>Ex : DrawService - ImageManipulationService</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.5 dans  FileSystemManager
+</t>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -385,6 +422,9 @@
   <si>
     <t>Il faut que vous améliorer le code de ClassicPageComponent. Ce component comporte trop de logique. Également pour GameCreationPageComponent. 
 Fonctions à revoir: registerUser, addServerSocketMessagesListeners</t>
+  </si>
+  <si>
+    <t>Fonctions à revoir dans ClassicPageComponent addServerSocketMessagesListeners, onWinGame, showFirstHint, showSecondHint, blinkDisk, blinkQuadrant, blinkDifference</t>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -398,6 +438,13 @@
     <t xml:space="preserve">Tous les messages d'erreur doivent être dans des contantes. Ex dans GameStorageService </t>
   </si>
   <si>
+    <t>Tous les messages d'erreur doivent être dans des contantes. Il y un manque significative de constantes dans l'ensemble du projet, ceci fait que vous n'obtenez pas vos points pour la nomenclature des constantes.</t>
+  </si>
+  <si>
+    <t>-0.25 -&gt; Vous perdez encore des points pour laisser vos messages d'erreurs en string et non des constantes. Par exemple, pour 'MatchmakingService', les erreurs et les noms des événements socket doivent être dans des constantes qui sont correctement nommées.
+-0.25 -&gt; Vous placer toutes vos contantes dans un fichier. Il faut mieux les séparées dans plusieurs.</t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -405,6 +452,9 @@
   </si>
   <si>
     <t>Votre création de jeu est pratiquement inutilisable</t>
+  </si>
+  <si>
+    <t>Bien</t>
   </si>
   <si>
     <t>8. Gestion de versions</t>
@@ -439,10 +489,14 @@
 Les Issues sont mis à jour tout au long du projet.</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.25 Plusieurs MR de feature ont été fermés. -0.25 Plusierus MR sont merged sans passé le pipeline </t>
+    <t>-0.25 Plusieurs MR de feature ont été fermés. -0.25 Plusierus MR sont merged sans passé le pipeline</t>
   </si>
   <si>
     <t>2 MR pour tout le sprint 2.</t>
+  </si>
+  <si>
+    <t>-0.5 Plusierus MR sont merged sans passé le pipeline
+Il ya eu une amélioration pour le reste</t>
   </si>
   <si>
     <t>8.5 Fichiers</t>
@@ -549,21 +603,46 @@
     <t>3.1 Mode Temps Limité</t>
   </si>
   <si>
+    <t>RACHAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de message du système que le joueur a abandonné la partie
+</t>
+  </si>
+  <si>
     <t>3.2 Remise des données à leur état initial</t>
   </si>
   <si>
     <t>3.3 Vue de Configuration - constantes de jeu</t>
   </si>
   <si>
+    <t>Bon travail pour les tests!</t>
+  </si>
+  <si>
     <t>3.4 Indices de jeu</t>
   </si>
   <si>
+    <t>AHMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ème Indice n'a pas été approuvé. 
+Autre que le carré est devenue un cercle, Il n'est pas différent de l'indice 2 ou 3. </t>
+  </si>
+  <si>
     <t>3.5 Historique des parties jouées</t>
   </si>
   <si>
+    <t>Bon travail
+manque de couverture dans history-controller</t>
+  </si>
+  <si>
     <t>3.6 Meilleurs temps</t>
   </si>
   <si>
+    <t>On voit pas le message avec la couleur des messages du système dans le chat
+Bon travail</t>
+  </si>
+  <si>
     <t>3.7 Messages de partie (global)</t>
   </si>
   <si>
@@ -573,6 +652,9 @@
     <t>Erreur de build / déploiement erroné</t>
   </si>
   <si>
+    <t>Votre création de jeu est brisée</t>
+  </si>
+  <si>
     <t>Document d'Architecture</t>
   </si>
   <si>
@@ -586,9 +668,6 @@
   </si>
   <si>
     <t>1 Introduction /1</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>1 Introduction (commentaires)</t>
@@ -616,9 +695,17 @@
 Globalement très bien, mais un gros manque de synthèse. Certains diagrammes sont à retirer ou fusionner ensemble. Notions d'include/extends à revoir.</t>
   </si>
   <si>
+    <t xml:space="preserve">Les noms des CUs sont toujours trop verbeux et donnent trop de détails d'implémentation/fonctionnement.
+CU2.0 : les relations sont toujours des "include"
+CU7.0 : les relations sont toujours des "include" </t>
+  </si>
+  <si>
     <t>Manque de justification pour le choix du protocole
 On s'attend que vous mentionner le protocole et non la librairie utilisé. C'est important de distinguer entre WebSockets et Socket.io.
 Dans la colonne moyen de communication , vous donnez des details non necessaires pour la section. L'important c'etait d'indiquer le choix et bien le justifier et non de mentionner les etapes du cas d'utilisation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bravo! Vous avez bien pris en considération les points mentionnés dans le sprint2.  </t>
   </si>
   <si>
     <t>3 Vue des processus /6</t>
@@ -637,9 +724,23 @@
 </t>
   </si>
   <si>
+    <t>P11 : le diagramme a été trop simplifiée : la notion du logiciel "Client" a été retirée et fusionnée à Utilisateur, ce qui n'est pas une bonne représentation de la réalité. Durant une partie, l'Utilisateur 1 n'est jamais notifié du résultat d'une tentative ? Une différence validée résulte à un changement d'images et non seulement à incrémenter le compte à rebours.
+P12 : manque la notion de sauvegarde sur la BD (imposé dans le projet). Les 2 [opt] ne devraient pas être dans ce diagramme : sinon vous indiquez que la seule manière de faire ces actions, c'est de toujours jouer une partie en mode classique avant.
+P13 constantes : aller à la page config ne devrait pas être un OPT : il n'y a aucune d'autre manière de modifier les constantes. Manque la notion de la BD pour l'historique (votre implémentation indique que l'historique est sur la BD  :https://gitlab.com/polytechnique-montr-al/log2990/20231/equipe-203/LOG2990-203/-/blob/sprint3/server/app/services/history-storage-service/history-storage.service.ts)
+P14 : on peut mettre la reprise en pause, mais pas de reprendre après la pause selon la séquence. Recommencer la reprise devrait être un [opt] dans la [loop] également.</t>
+  </si>
+  <si>
     <t>bonne presentation des contenu
 POST devrait  retourner un code 201 au lieu d'un 200 pour le send-image 
 Pour la partie WS, c'est important que vous indiquez si c'est un event sent du serveur ou du client donc dans le contenu faudrait le preciser pour documenter la communication bidirectionnelle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code de retour : faudrait expliciter lequel est pour le succès et lequel est pour l'erreur 
+Faudrait aussi ajouter le message du code.
+Dans une documentation des éléments logiciels , faudrait présenter le contenue dans une structure qui rend la lecture facile. Il faudrait utiliser des tableaux pour plusieurs parties de votre document .
+le contenu dans les paquets WS est long parfois. Faudrait donner seuelemnt le nom de l'objet envoyé ou reçu ainsi que l'interface ou le type de l'objet
+Bon travail pour le reste 
+</t>
   </si>
   <si>
     <t>4 Vue logique /6</t>
@@ -658,6 +759,10 @@
 Section à revoir : présentation avec trop d'information non nécessaire et difficile à lire.</t>
   </si>
   <si>
+    <t>Très bonne amélioration par rapport à la remise initiale. La cohérence entre les diagrammes permet de plus facilement voir l'ensemble.
+Attention : le but des tableaux n'est pas d'expliquer toute la logique d'implémentation.</t>
+  </si>
+  <si>
     <t>5 Vue de déploiement /2</t>
   </si>
   <si>
@@ -671,6 +776,12 @@
 </t>
   </si>
   <si>
+    <t>Manque le fait que votre statique contient les fichiers soures du site web.
+Le navigateur doit être à l'intérieur de la boîte de l'OS
+Express est une librairie : à retirer. NodeJS doit être dans la boîte de Linux.
+Manque le logiciel MongoDB sur MongoDB Atlas</t>
+  </si>
+  <si>
     <t>Forme /1</t>
   </si>
   <si>
@@ -679,9 +790,16 @@
 Mise en page : titre et contenu de la section 5 sur 2 pages différentes</t>
   </si>
   <si>
+    <t>Section 3 : on veut des diagrammes de séquences spécifiquement et non d'intéraction. Il y a plusieurs types de diagrammes d'intéraction en UML (voir 17.1.4 de la spécification). Les titres de cette section sont à modifier.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manque d'une structure qui liste  les endpoints et des events sockets (bullet points, tirets, numéros..) et qui donne un titre descriptif de l'endpoint
 tableau manque de titre section2 et manque une presentaion (ex: le tableau ci-dessous présente ...etc)
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La section 2 aurait une meilleure forme avec l'utilisation des tableaux .
+Faudrait séparer client/serveur WS events dans la documentation pour rendre la lecture plus claire </t>
   </si>
   <si>
     <t>FOND</t>
@@ -1770,7 +1888,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2461,6 +2579,12 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2622,13 +2746,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3011,8 +3135,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3110,15 +3234,15 @@
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E43)</f>
-        <v>0</v>
+        <v>0.83650000000000002</v>
       </c>
       <c r="C6" s="118">
         <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="D6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80090000000000006</v>
       </c>
       <c r="E6" s="119"/>
       <c r="F6" s="120">
@@ -3126,11 +3250,11 @@
       </c>
       <c r="G6" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.018000000000001</v>
       </c>
       <c r="H6" s="121">
         <f>AVERAGE(Documents!C18,Documents!G18)*5</f>
-        <v>0</v>
+        <v>4.5187500000000007</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3140,7 +3264,7 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="123">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="E7" s="124"/>
       <c r="F7" s="122">
@@ -3148,7 +3272,7 @@
       </c>
       <c r="G7" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="H7" s="125"/>
     </row>
@@ -3162,8 +3286,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3182,36 +3306,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3231,36 +3355,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="258" t="s">
+      <c r="C6" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="260" t="s">
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="261"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="240" t="s">
+      <c r="G6" s="263"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="242" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="241"/>
-      <c r="K6" s="242"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="244"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
+      <c r="N6" s="256"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="257"/>
-      <c r="B7" s="244"/>
+      <c r="A7" s="259"/>
+      <c r="B7" s="246"/>
       <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
@@ -3296,26 +3420,26 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="253" t="s">
+      <c r="A8" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="253"/>
-      <c r="C8" s="246" t="s">
+      <c r="B8" s="255"/>
+      <c r="C8" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="247"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="246" t="s">
+      <c r="F8" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="247"/>
+      <c r="G8" s="249"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="247"/>
+      <c r="J8" s="249"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3349,11 +3473,15 @@
       <c r="H9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="104">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="105">
         <v>6</v>
       </c>
-      <c r="K9" s="106"/>
+      <c r="K9" s="106" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40"/>
@@ -3363,10 +3491,10 @@
     </row>
     <row r="10" spans="1:17" ht="229.5">
       <c r="A10" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="100">
         <v>0.5</v>
@@ -3375,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="102">
         <v>0.8</v>
@@ -3384,13 +3512,17 @@
         <v>2</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="104"/>
+        <v>28</v>
+      </c>
+      <c r="I10" s="104">
+        <v>0.75</v>
+      </c>
       <c r="J10" s="105">
         <v>2</v>
       </c>
-      <c r="K10" s="106"/>
+      <c r="K10" s="106" t="s">
+        <v>29</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40"/>
@@ -3399,10 +3531,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="248" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="249"/>
+      <c r="A11" s="250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="251"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>4.5999999999999996</v>
@@ -3423,7 +3555,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -3438,29 +3570,31 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="253" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="253"/>
-      <c r="C12" s="246" t="s">
+      <c r="A12" s="255" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="255"/>
+      <c r="C12" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="247"/>
+      <c r="D12" s="249"/>
       <c r="E12" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="247"/>
+      <c r="G12" s="249"/>
       <c r="H12" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="247"/>
-      <c r="K12" s="46"/>
+      <c r="J12" s="249"/>
+      <c r="K12" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="43"/>
@@ -3470,10 +3604,10 @@
     </row>
     <row r="13" spans="1:17" ht="137.25">
       <c r="A13" s="29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="79">
         <v>0</v>
@@ -3482,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="89">
         <v>0</v>
@@ -3492,23 +3626,27 @@
         <v>3</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="92"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="92">
+        <v>0</v>
+      </c>
       <c r="J13" s="93">
         <f>G13</f>
         <v>3</v>
       </c>
-      <c r="K13" s="94"/>
+      <c r="K13" s="94" t="s">
+        <v>35</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="45.75">
       <c r="A14" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="83">
         <v>1</v>
@@ -3517,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="86">
         <v>1</v>
@@ -3526,24 +3664,28 @@
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88">
-        <v>0</v>
-      </c>
-      <c r="I14" s="76"/>
+      <c r="H14" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="76">
+        <v>1</v>
+      </c>
       <c r="J14" s="93">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="45.75">
       <c r="A15" s="23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3552,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" s="86">
         <v>0</v>
@@ -3562,23 +3704,27 @@
         <v>2</v>
       </c>
       <c r="H15" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="76"/>
+        <v>42</v>
+      </c>
+      <c r="I15" s="76">
+        <v>0</v>
+      </c>
       <c r="J15" s="93">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="78"/>
+      <c r="K15" s="78" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="30.75">
+    <row r="16" spans="1:17" ht="45.75">
       <c r="A16" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="83">
         <v>1</v>
@@ -3587,7 +3733,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F16" s="86">
         <v>1</v>
@@ -3597,23 +3743,27 @@
         <v>4</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="76"/>
+        <v>46</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J16" s="93">
-        <f t="shared" si="1"/>
+        <f>G16</f>
         <v>4</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="78" t="s">
+        <v>47</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="167.25">
       <c r="A17" s="23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" s="83">
         <v>0.5</v>
@@ -3622,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" s="86">
         <v>0.5</v>
@@ -3632,22 +3782,26 @@
         <v>4</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>51</v>
+      </c>
+      <c r="I17" s="76">
+        <v>1</v>
+      </c>
       <c r="J17" s="93">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="78"/>
+      <c r="K17" s="78" t="s">
+        <v>46</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="248" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="249"/>
+      <c r="A18" s="250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="251"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8</v>
@@ -3668,7 +3822,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -3683,36 +3837,36 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="245" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="245"/>
-      <c r="C19" s="246" t="s">
+      <c r="A19" s="247" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="247"/>
+      <c r="C19" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="247"/>
+      <c r="D19" s="249"/>
       <c r="E19" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="247"/>
+      <c r="G19" s="249"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="246" t="s">
+      <c r="I19" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="247"/>
+      <c r="J19" s="249"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="152.25">
       <c r="A20" s="23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="83">
         <v>0.1</v>
@@ -3721,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F20" s="86">
         <v>1</v>
@@ -3730,22 +3884,26 @@
         <v>3</v>
       </c>
       <c r="H20" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="76"/>
+        <v>56</v>
+      </c>
+      <c r="I20" s="76">
+        <v>0.8</v>
+      </c>
       <c r="J20" s="77">
         <v>3</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="78" t="s">
+        <v>57</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3754,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F21" s="86">
         <v>1</v>
@@ -3763,21 +3921,25 @@
         <v>3</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="76"/>
+        <v>46</v>
+      </c>
+      <c r="I21" s="76">
+        <v>1</v>
+      </c>
       <c r="J21" s="77">
         <v>3</v>
       </c>
-      <c r="K21" s="78"/>
+      <c r="K21" s="78" t="s">
+        <v>46</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="250" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="251"/>
+      <c r="A22" s="252" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="253"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>3.3</v>
@@ -3798,7 +3960,7 @@
       <c r="H22" s="62"/>
       <c r="I22" s="63">
         <f>SUMPRODUCT(I20:I21,J20:J21)</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J22" s="64">
         <f>SUM(J20:J21)</f>
@@ -3810,35 +3972,35 @@
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="214" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B23" s="214"/>
-      <c r="C23" s="246" t="s">
+      <c r="C23" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="247"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="247"/>
+      <c r="G23" s="249"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="246" t="s">
+      <c r="I23" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="247"/>
+      <c r="J23" s="249"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="30.75">
+    <row r="24" spans="1:17" ht="76.5">
       <c r="A24" s="42" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C24" s="97">
         <v>1</v>
@@ -3847,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24" s="82">
         <v>1</v>
@@ -3856,22 +4018,26 @@
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="73"/>
+        <v>38</v>
+      </c>
+      <c r="I24" s="73">
+        <v>0.25</v>
+      </c>
       <c r="J24" s="74">
         <v>1</v>
       </c>
-      <c r="K24" s="75"/>
+      <c r="K24" s="75" t="s">
+        <v>63</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="60.75">
       <c r="A25" s="23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C25" s="83">
         <v>0.9</v>
@@ -3880,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F25" s="86">
         <v>0.5</v>
@@ -3889,22 +4055,26 @@
         <v>2</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="76"/>
+        <v>67</v>
+      </c>
+      <c r="I25" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J25" s="77">
         <v>2</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="78" t="s">
+        <v>67</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3913,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" s="86">
         <v>1</v>
@@ -3922,21 +4092,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="I26" s="76">
+        <v>1</v>
+      </c>
       <c r="J26" s="77">
         <v>1</v>
       </c>
-      <c r="K26" s="78"/>
+      <c r="K26" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="252" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="251"/>
+      <c r="A27" s="254" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="253"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>3.8</v>
@@ -3957,7 +4131,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63">
         <f>SUMPRODUCT(I24:I26,J24:J26)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="J27" s="64">
         <f>SUM(J24:J26)</f>
@@ -3968,36 +4142,38 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="245" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="245"/>
-      <c r="C28" s="246" t="s">
+      <c r="A28" s="247" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="247"/>
+      <c r="C28" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="247"/>
+      <c r="D28" s="249"/>
       <c r="E28" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="246" t="s">
+      <c r="F28" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="247"/>
+      <c r="G28" s="249"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="246" t="s">
+      <c r="I28" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="247"/>
-      <c r="K28" s="46"/>
+      <c r="J28" s="249"/>
+      <c r="K28" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="366">
       <c r="A29" s="31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29" s="79">
         <v>0</v>
@@ -4006,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F29" s="89">
         <v>0.5</v>
@@ -4016,23 +4192,27 @@
         <v>2</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I29" s="92">
+        <v>0.8</v>
+      </c>
       <c r="J29" s="93">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="94"/>
+      <c r="K29" s="94" t="s">
+        <v>75</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C30" s="83">
         <v>1</v>
@@ -4049,7 +4229,9 @@
         <v>2</v>
       </c>
       <c r="H30" s="96"/>
-      <c r="I30" s="76"/>
+      <c r="I30" s="76">
+        <v>1</v>
+      </c>
       <c r="J30" s="93">
         <f t="shared" ref="J30:J31" si="3">D30</f>
         <v>2</v>
@@ -4060,10 +4242,10 @@
     </row>
     <row r="31" spans="1:17" ht="106.5">
       <c r="A31" s="24" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C31" s="83">
         <v>0.4</v>
@@ -4072,7 +4254,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F31" s="86">
         <v>1</v>
@@ -4082,7 +4264,9 @@
         <v>2</v>
       </c>
       <c r="H31" s="96"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
       <c r="J31" s="93">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -4092,10 +4276,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="248" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="249"/>
+      <c r="A32" s="250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="251"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>2.8</v>
@@ -4116,7 +4300,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="63">
         <f>SUMPRODUCT(I29:I31,J29:J31)</f>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J32" s="64">
         <f>SUM(J29:J31)</f>
@@ -4127,36 +4311,40 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="253"/>
-      <c r="C33" s="246" t="s">
+      <c r="A33" s="255" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="255"/>
+      <c r="C33" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="247"/>
+      <c r="D33" s="249"/>
       <c r="E33" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="246" t="s">
+      <c r="F33" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="247"/>
-      <c r="H33" s="46"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="I33" s="68" t="s">
         <v>18</v>
       </c>
       <c r="J33" s="66"/>
-      <c r="K33" s="46"/>
+      <c r="K33" s="46" t="s">
+        <v>19</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C34" s="79">
         <v>1</v>
@@ -4172,7 +4360,9 @@
         <v>2</v>
       </c>
       <c r="H34" s="91"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="92">
+        <v>1</v>
+      </c>
       <c r="J34" s="93">
         <v>2</v>
       </c>
@@ -4182,10 +4372,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -4201,7 +4391,9 @@
         <v>2</v>
       </c>
       <c r="H35" s="88"/>
-      <c r="I35" s="76"/>
+      <c r="I35" s="92">
+        <v>1</v>
+      </c>
       <c r="J35" s="77">
         <v>2</v>
       </c>
@@ -4211,10 +4403,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C36" s="83">
         <v>1</v>
@@ -4230,7 +4422,9 @@
         <v>3</v>
       </c>
       <c r="H36" s="88"/>
-      <c r="I36" s="76"/>
+      <c r="I36" s="92">
+        <v>1</v>
+      </c>
       <c r="J36" s="77">
         <v>3</v>
       </c>
@@ -4240,10 +4434,10 @@
     </row>
     <row r="37" spans="1:13" ht="45.75">
       <c r="A37" s="23" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C37" s="83">
         <v>0.8</v>
@@ -4252,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F37" s="86">
         <v>1</v>
@@ -4261,7 +4455,9 @@
         <v>3</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="92">
+        <v>1</v>
+      </c>
       <c r="J37" s="77">
         <v>3</v>
       </c>
@@ -4270,10 +4466,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A38" s="248" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="249"/>
+      <c r="A38" s="250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="251"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>9.4</v>
@@ -4292,51 +4488,57 @@
         <v>10</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="64">
         <f>SUM(J34:J37)</f>
         <v>10</v>
       </c>
-      <c r="K38" s="65"/>
+      <c r="K38" s="65" t="s">
+        <v>93</v>
+      </c>
       <c r="L38" s="56"/>
       <c r="M38" s="56"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="246" t="s">
+      <c r="C39" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="247"/>
+      <c r="D39" s="249"/>
       <c r="E39" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="246" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="247"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="246" t="s">
+      <c r="G39" s="249"/>
+      <c r="H39" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="247"/>
-      <c r="K39" s="46"/>
+      <c r="J39" s="249"/>
+      <c r="K39" s="46" t="s">
+        <v>95</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C40" s="83">
         <v>1</v>
@@ -4345,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F40" s="86">
         <v>1</v>
@@ -4355,23 +4557,27 @@
         <v>2</v>
       </c>
       <c r="H40" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="I40" s="76">
+        <v>1</v>
+      </c>
       <c r="J40" s="77">
         <f>D40</f>
         <v>2</v>
       </c>
-      <c r="K40" s="78"/>
+      <c r="K40" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="45.75">
       <c r="A41" s="23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C41" s="83">
         <v>0</v>
@@ -4380,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F41" s="86">
         <v>1</v>
@@ -4390,23 +4596,27 @@
         <v>2</v>
       </c>
       <c r="H41" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="I41" s="76">
+        <v>1</v>
+      </c>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
         <v>2</v>
       </c>
-      <c r="K41" s="78"/>
+      <c r="K41" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="45.75">
       <c r="A42" s="23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C42" s="83">
         <v>0</v>
@@ -4415,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F42" s="86">
         <v>0.5</v>
@@ -4425,22 +4635,26 @@
         <v>2</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="76"/>
+        <v>104</v>
+      </c>
+      <c r="I42" s="76">
+        <v>1</v>
+      </c>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K42" s="78"/>
+      <c r="K42" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C43" s="83">
         <v>1</v>
@@ -4449,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F43" s="86">
         <v>1</v>
@@ -4459,23 +4673,27 @@
         <v>4</v>
       </c>
       <c r="H43" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="I43" s="76">
+        <v>1</v>
+      </c>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K43" s="78"/>
+      <c r="K43" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="23" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C44" s="83">
         <v>1</v>
@@ -4484,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F44" s="86">
         <v>1</v>
@@ -4494,23 +4712,27 @@
         <v>6</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="I44" s="76">
+        <v>1</v>
+      </c>
       <c r="J44" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K44" s="78"/>
+      <c r="K44" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="45.75">
       <c r="A45" s="23" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C45" s="83">
         <v>0</v>
@@ -4519,7 +4741,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F45" s="86">
         <v>1</v>
@@ -4529,23 +4751,27 @@
         <v>8</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="I45" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K45" s="78"/>
+      <c r="K45" s="78" t="s">
+        <v>112</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="198">
       <c r="A46" s="23" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C46" s="83">
         <v>0.5</v>
@@ -4554,7 +4780,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="218" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F46" s="86">
         <v>0.5</v>
@@ -4564,23 +4790,27 @@
         <v>6</v>
       </c>
       <c r="H46" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="I46" s="76"/>
+        <v>116</v>
+      </c>
+      <c r="I46" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="78" t="s">
+        <v>117</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="76.5">
+    <row r="47" spans="1:13" ht="290.25">
       <c r="A47" s="23" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C47" s="83">
         <v>0.5</v>
@@ -4589,7 +4819,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="85" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F47" s="86">
         <v>0.5</v>
@@ -4599,23 +4829,27 @@
         <v>6</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="76"/>
+        <v>121</v>
+      </c>
+      <c r="I47" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K47" s="78"/>
+      <c r="K47" s="78" t="s">
+        <v>122</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="45.75">
       <c r="A48" s="13" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4624,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F48" s="86">
         <v>0</v>
@@ -4634,22 +4868,26 @@
         <v>4</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="76"/>
+        <v>125</v>
+      </c>
+      <c r="I48" s="76">
+        <v>1</v>
+      </c>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K48" s="78"/>
+      <c r="K48" s="78" t="s">
+        <v>126</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="248" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="249"/>
+      <c r="A49" s="250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="251"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>22</v>
@@ -4670,7 +4908,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="53">
         <f>SUMPRODUCT(I40:I48,J40:J48)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J49" s="54">
         <f>SUM(J40:J48)</f>
@@ -4685,38 +4923,40 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="253" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="253"/>
-      <c r="C50" s="246" t="s">
+      <c r="A50" s="255" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="255"/>
+      <c r="C50" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="247"/>
+      <c r="D50" s="249"/>
       <c r="E50" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="246" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="247"/>
+      <c r="G50" s="249"/>
       <c r="H50" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" s="246" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="248" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="247"/>
-      <c r="K50" s="46"/>
+      <c r="J50" s="249"/>
+      <c r="K50" s="46" t="s">
+        <v>95</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4725,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F51" s="82">
         <v>1</v>
@@ -4734,22 +4974,26 @@
         <v>2</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="73"/>
+        <v>38</v>
+      </c>
+      <c r="I51" s="73">
+        <v>1</v>
+      </c>
       <c r="J51" s="74">
         <v>2</v>
       </c>
-      <c r="K51" s="75"/>
+      <c r="K51" s="75" t="s">
+        <v>38</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:17" ht="30.75">
       <c r="A52" s="23" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4758,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F52" s="86">
         <v>1</v>
@@ -4767,22 +5011,26 @@
         <v>2</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" s="76"/>
+        <v>132</v>
+      </c>
+      <c r="I52" s="76">
+        <v>1</v>
+      </c>
       <c r="J52" s="77">
         <v>2</v>
       </c>
-      <c r="K52" s="78"/>
+      <c r="K52" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4791,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F53" s="86">
         <v>1</v>
@@ -4800,22 +5048,26 @@
         <v>1</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I53" s="76"/>
+        <v>38</v>
+      </c>
+      <c r="I53" s="76">
+        <v>1</v>
+      </c>
       <c r="J53" s="77">
         <v>1</v>
       </c>
-      <c r="K53" s="78"/>
+      <c r="K53" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="76.5">
+    <row r="54" spans="1:17" ht="91.5">
       <c r="A54" s="23" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C54" s="83">
         <v>0.5</v>
@@ -4824,7 +5076,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F54" s="86">
         <v>0</v>
@@ -4833,22 +5085,26 @@
         <v>4</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="76"/>
+        <v>138</v>
+      </c>
+      <c r="I54" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J54" s="77">
         <v>4</v>
       </c>
-      <c r="K54" s="78"/>
+      <c r="K54" s="78" t="s">
+        <v>139</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4857,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F55" s="86">
         <v>1</v>
@@ -4866,21 +5122,25 @@
         <v>2</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
       <c r="J55" s="77">
         <v>2</v>
       </c>
-      <c r="K55" s="78"/>
+      <c r="K55" s="78" t="s">
+        <v>38</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="248" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="249"/>
+      <c r="A56" s="250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="251"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>9</v>
@@ -4901,7 +5161,7 @@
       <c r="H56" s="62"/>
       <c r="I56" s="53">
         <f>SUMPRODUCT(I51:I55,J51:J55)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J56" s="54">
         <f>SUM(J51:J55)</f>
@@ -4912,27 +5172,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="276" t="s">
+      <c r="A57" s="278" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="277"/>
-      <c r="C57" s="277"/>
-      <c r="D57" s="277"/>
-      <c r="E57" s="277"/>
-      <c r="F57" s="277"/>
-      <c r="G57" s="277"/>
-      <c r="H57" s="277"/>
-      <c r="I57" s="277"/>
-      <c r="J57" s="277"/>
-      <c r="K57" s="278"/>
+      <c r="B57" s="279"/>
+      <c r="C57" s="279"/>
+      <c r="D57" s="279"/>
+      <c r="E57" s="279"/>
+      <c r="F57" s="279"/>
+      <c r="G57" s="279"/>
+      <c r="H57" s="279"/>
+      <c r="I57" s="279"/>
+      <c r="J57" s="279"/>
+      <c r="K57" s="280"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="263" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="264"/>
+      <c r="A58" s="265" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="266"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>62.9</v>
@@ -4953,7 +5213,7 @@
       <c r="H58" s="28"/>
       <c r="I58" s="213">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
-        <v>0</v>
+        <v>74.75</v>
       </c>
       <c r="J58" s="32">
         <f>J11+J18+J22+J27+J32+J38+J49+J56</f>
@@ -4964,28 +5224,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="265" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="266"/>
-      <c r="C59" s="267">
+      <c r="A59" s="267" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="268"/>
+      <c r="C59" s="269">
         <f>C58/D58</f>
         <v>0.629</v>
       </c>
-      <c r="D59" s="268"/>
-      <c r="E59" s="269"/>
-      <c r="F59" s="270">
+      <c r="D59" s="270"/>
+      <c r="E59" s="271"/>
+      <c r="F59" s="272">
         <f>F58/G58</f>
         <v>0.73799999999999999</v>
       </c>
-      <c r="G59" s="271"/>
-      <c r="H59" s="272"/>
-      <c r="I59" s="273">
+      <c r="G59" s="273"/>
+      <c r="H59" s="274"/>
+      <c r="I59" s="275">
         <f>I58/J58</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="274"/>
-      <c r="K59" s="275"/>
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="J59" s="276"/>
+      <c r="K59" s="277"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -5044,7 +5304,7 @@
     <mergeCell ref="C8:D8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 F34:F37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 C40:C48 F34:F37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 I34:I37" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -5063,8 +5323,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5079,15 +5339,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -5100,7 +5360,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5111,31 +5371,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="283" t="s">
+      <c r="A6" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="285"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>18</v>
@@ -5146,7 +5406,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -5162,15 +5422,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -5189,12 +5449,12 @@
         <v>19</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B10" s="134">
         <v>1</v>
@@ -5213,12 +5473,12 @@
         <v>19</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="136" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B11" s="137">
         <v>1</v>
@@ -5234,15 +5494,15 @@
         <v>16</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -5258,15 +5518,15 @@
         <v>20</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45.75">
       <c r="A13" s="133" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B13" s="134">
         <v>0.95</v>
@@ -5285,12 +5545,12 @@
         <v>19</v>
       </c>
       <c r="G13" s="219" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="136" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B14" s="137">
         <v>1</v>
@@ -5306,18 +5566,18 @@
         <v>26</v>
       </c>
       <c r="F14" s="137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" s="138" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="286"/>
-      <c r="C15" s="286"/>
+        <v>158</v>
+      </c>
+      <c r="B15" s="288"/>
+      <c r="C15" s="288"/>
       <c r="D15" s="140">
         <f>SUM(D8:D14)</f>
         <v>100</v>
@@ -5331,7 +5591,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="143" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>15</v>
@@ -5341,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F16" s="145"/>
       <c r="G16" s="146" t="s">
@@ -5350,7 +5610,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="147" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B17" s="148">
         <v>0</v>
@@ -5368,7 +5628,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="151" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B18" s="152">
         <v>0</v>
@@ -5385,31 +5645,31 @@
       <c r="G18" s="154"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="287" t="s">
+      <c r="A19" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="288"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="289"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="291"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="155" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B20" s="156" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D20" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F20" s="156" t="s">
         <v>18</v>
@@ -5420,7 +5680,7 @@
     </row>
     <row r="21" spans="1:7" ht="45.75">
       <c r="A21" s="158" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B21" s="159">
         <v>1</v>
@@ -5436,15 +5696,15 @@
         <v>19.5</v>
       </c>
       <c r="F21" s="159" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="237" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="161" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B22" s="162">
         <v>1</v>
@@ -5463,12 +5723,12 @@
         <v>19</v>
       </c>
       <c r="G22" s="163" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="158" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B23" s="159">
         <v>1</v>
@@ -5484,15 +5744,15 @@
         <v>26</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G23" s="160" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="161" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B24" s="162">
         <v>1</v>
@@ -5511,12 +5771,12 @@
         <v>19</v>
       </c>
       <c r="G24" s="163" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="158" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B25" s="159">
         <v>0.8</v>
@@ -5532,15 +5792,15 @@
         <v>6.4</v>
       </c>
       <c r="F25" s="159" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G25" s="160" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="161" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B26" s="162">
         <v>1</v>
@@ -5559,12 +5819,12 @@
         <v>19</v>
       </c>
       <c r="G26" s="163" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="215" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B27" s="215">
         <v>1</v>
@@ -5580,15 +5840,15 @@
         <v>8</v>
       </c>
       <c r="F27" s="215" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="216" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="164" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B28" s="165"/>
       <c r="C28" s="165"/>
@@ -5605,7 +5865,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="168" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B29" s="169" t="s">
         <v>15</v>
@@ -5615,7 +5875,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="170" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F29" s="170"/>
       <c r="G29" s="171" t="s">
@@ -5624,7 +5884,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="172" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B30" s="173">
         <v>0</v>
@@ -5642,7 +5902,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="176" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B31" s="177">
         <v>0</v>
@@ -5660,7 +5920,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="180" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B32" s="181">
         <v>0</v>
@@ -5677,31 +5937,31 @@
       <c r="G32" s="183"/>
     </row>
     <row r="33" spans="1:7" ht="23.25">
-      <c r="A33" s="280" t="s">
+      <c r="A33" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="281"/>
-      <c r="C33" s="281"/>
-      <c r="D33" s="281"/>
-      <c r="E33" s="281"/>
-      <c r="F33" s="281"/>
-      <c r="G33" s="282"/>
+      <c r="B33" s="283"/>
+      <c r="C33" s="283"/>
+      <c r="D33" s="283"/>
+      <c r="E33" s="283"/>
+      <c r="F33" s="283"/>
+      <c r="G33" s="284"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="184" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B34" s="185" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="185" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D34" s="185" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F34" s="185" t="s">
         <v>18</v>
@@ -5710,169 +5970,201 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="45.75">
       <c r="A35" s="187" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B35" s="188">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C35" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="188">
         <v>24</v>
       </c>
       <c r="E35" s="188">
         <f t="shared" ref="E35:E42" si="2">B35*C35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="188"/>
-      <c r="G35" s="189"/>
+        <v>21.6</v>
+      </c>
+      <c r="F35" s="188" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="239" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="190" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B36" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="191">
         <v>6</v>
       </c>
       <c r="E36" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="191"/>
-      <c r="G36" s="192"/>
+        <v>6</v>
+      </c>
+      <c r="F36" s="191" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="192" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="187" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B37" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="188">
         <v>6</v>
       </c>
       <c r="E37" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="188"/>
-      <c r="G37" s="189"/>
-    </row>
-    <row r="38" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="F37" s="188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="189" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45.75">
       <c r="A38" s="190" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B38" s="191">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C38" s="191">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D38" s="191">
         <v>12</v>
       </c>
       <c r="E38" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="191"/>
-      <c r="G38" s="192"/>
-    </row>
-    <row r="39" spans="1:7">
+        <v>6.75</v>
+      </c>
+      <c r="F38" s="191" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="238" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30.75">
       <c r="A39" s="187" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B39" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="188">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D39" s="188">
         <v>12</v>
       </c>
       <c r="E39" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="188"/>
-      <c r="G39" s="189"/>
-    </row>
-    <row r="40" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="F39" s="191" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="239" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45.75">
       <c r="A40" s="190" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B40" s="191">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C40" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="191">
         <v>14</v>
       </c>
       <c r="E40" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="191"/>
-      <c r="G40" s="192"/>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="F40" s="191" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="238" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="187" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B41" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="188">
         <v>6</v>
       </c>
       <c r="E41" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189"/>
+        <v>6</v>
+      </c>
+      <c r="F41" s="188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="189" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="217" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B42" s="217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="217">
         <v>20</v>
       </c>
       <c r="E42" s="188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="217" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="217" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="193" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B43" s="194"/>
       <c r="C43" s="194"/>
@@ -5881,15 +6173,15 @@
         <v>100</v>
       </c>
       <c r="E43" s="195">
-        <f>(SUM(E35:E41) +E45+E46+E47)/D43</f>
-        <v>0</v>
+        <f>(SUM(E35:E42) +E45+E46+E47)/D43</f>
+        <v>0.83650000000000002</v>
       </c>
       <c r="F43" s="195"/>
       <c r="G43" s="196"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="197" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B44" s="198" t="s">
         <v>15</v>
@@ -5899,7 +6191,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="199" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F44" s="199"/>
       <c r="G44" s="200" t="s">
@@ -5908,7 +6200,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="201" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B45" s="202">
         <v>0</v>
@@ -5926,7 +6218,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="205" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B46" s="206">
         <v>0</v>
@@ -5944,10 +6236,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="209" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B47" s="210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="210"/>
       <c r="D47" s="211">
@@ -5955,10 +6247,12 @@
       </c>
       <c r="E47" s="210">
         <f>B47*D47</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F47" s="210"/>
-      <c r="G47" s="212"/>
+      <c r="G47" s="212" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5990,27 +6284,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C419CCA7-9A71-4A4D-A58A-58139BB14908}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="44.140625" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="290" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="290"/>
-      <c r="E1" s="290" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="290"/>
+      <c r="A1" s="292" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="292"/>
+      <c r="E1" s="292" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="292"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="B2" s="220" t="s">
@@ -6030,155 +6326,202 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="221" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B3" s="222"/>
       <c r="E3" s="221" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="F3" s="222" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="223" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B4" s="224">
         <v>1</v>
       </c>
-      <c r="C4" s="224"/>
+      <c r="C4" s="224">
+        <v>1</v>
+      </c>
       <c r="E4" s="223" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="F4" s="224">
         <v>1</v>
       </c>
-      <c r="G4" s="224"/>
+      <c r="G4" s="224">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="221"/>
       <c r="B5" s="225" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="E5" s="221" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F5" s="225" t="s">
-        <v>174</v>
+        <v>196</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="223" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B6" s="224">
         <v>4</v>
       </c>
-      <c r="C6" s="224"/>
+      <c r="C6" s="224">
+        <v>4.75</v>
+      </c>
       <c r="E6" s="223" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F6" s="224">
         <v>4.5</v>
       </c>
-      <c r="G6" s="224"/>
+      <c r="G6" s="224">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="324">
       <c r="A7" s="221"/>
       <c r="B7" s="222" t="s">
-        <v>177</v>
+        <v>199</v>
+      </c>
+      <c r="C7" s="222" t="s">
+        <v>200</v>
       </c>
       <c r="E7" s="221"/>
       <c r="F7" s="222" t="s">
-        <v>178</v>
+        <v>201</v>
+      </c>
+      <c r="G7" s="222" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="223" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B8" s="224">
         <v>4</v>
       </c>
-      <c r="C8" s="224"/>
+      <c r="C8" s="224">
+        <v>5</v>
+      </c>
       <c r="E8" s="223" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F8" s="224">
         <v>9.5</v>
       </c>
-      <c r="G8" s="224"/>
-    </row>
-    <row r="9" spans="1:7" ht="307.5">
+      <c r="G8" s="224">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6">
       <c r="A9" s="221"/>
       <c r="B9" s="226" t="s">
-        <v>181</v>
+        <v>205</v>
+      </c>
+      <c r="C9" s="222" t="s">
+        <v>206</v>
       </c>
       <c r="E9" s="227"/>
       <c r="F9" s="226" t="s">
-        <v>182</v>
+        <v>207</v>
+      </c>
+      <c r="G9" s="226" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="223" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B10" s="224">
         <v>3.5</v>
       </c>
-      <c r="C10" s="224"/>
+      <c r="C10" s="224">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="366">
       <c r="A11" s="221"/>
       <c r="B11" s="234" t="s">
-        <v>184</v>
+        <v>210</v>
+      </c>
+      <c r="C11" s="222" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="223" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B12" s="224">
         <v>1</v>
       </c>
-      <c r="C12" s="224"/>
+      <c r="C12" s="224">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="198">
       <c r="A13" s="227"/>
       <c r="B13" s="235" t="s">
-        <v>186</v>
+        <v>213</v>
+      </c>
+      <c r="C13" s="222" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="228" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B14" s="224">
         <v>0.9</v>
       </c>
-      <c r="C14" s="224"/>
+      <c r="C14" s="224">
+        <v>0.9</v>
+      </c>
       <c r="E14" s="228" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F14" s="229">
         <v>0.75</v>
       </c>
-      <c r="G14" s="224"/>
+      <c r="G14" s="224">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="113.25">
       <c r="A15" s="221"/>
       <c r="B15" s="236" t="s">
-        <v>188</v>
+        <v>216</v>
+      </c>
+      <c r="C15" s="222" t="s">
+        <v>217</v>
       </c>
       <c r="E15" s="221"/>
       <c r="F15" s="226" t="s">
-        <v>189</v>
+        <v>218</v>
+      </c>
+      <c r="G15" s="226" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="230" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B16" s="231">
         <f t="shared" ref="B16" si="0">SUM(B4,B6,B8,B10,B12)</f>
@@ -6186,10 +6529,10 @@
       </c>
       <c r="C16" s="231">
         <f>SUM(C4,C6,C8,C10,C12)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16" s="230" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="F16" s="231">
         <f>SUM(F4,F6,F8)</f>
@@ -6197,12 +6540,12 @@
       </c>
       <c r="G16" s="231">
         <f>SUM(G4,G6,G8)</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="230" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="B17" s="231">
         <f t="shared" ref="B17" si="1">B14</f>
@@ -6210,10 +6553,10 @@
       </c>
       <c r="C17" s="231">
         <f>C14</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E17" s="230" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="F17" s="231">
         <f>F14</f>
@@ -6221,12 +6564,12 @@
       </c>
       <c r="G17" s="231">
         <f>G14</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="232" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B18" s="233">
         <f t="shared" ref="B18" si="2">B16/20*0.9+B17*0.1</f>
@@ -6234,10 +6577,10 @@
       </c>
       <c r="C18" s="233">
         <f>C16/20*0.9+C17*0.1</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="232" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F18" s="233">
         <f>F16/20*0.9+F17*0.1</f>
@@ -6245,7 +6588,7 @@
       </c>
       <c r="G18" s="233">
         <f>G16/20*0.9+G17*0.1</f>
-        <v>0</v>
+        <v>0.90749999999999997</v>
       </c>
     </row>
   </sheetData>
